--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,16 +40,19 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>uncomfortable</t>
   </si>
   <si>
     <t>dangerous</t>
@@ -61,27 +64,27 @@
     <t>addicted</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>dark</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -94,21 +97,24 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>better</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
@@ -124,31 +130,28 @@
     <t>wow</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>recommend</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
+    <t>watching</t>
+  </si>
+  <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>watching</t>
+    <t>watch</t>
   </si>
   <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>…</t>
@@ -520,10 +523,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -581,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -599,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -631,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9242424242424242</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -649,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -673,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -681,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -699,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.84</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -723,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -731,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9134615384615384</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -749,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.7543859649122807</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -773,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -781,49 +784,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="L7">
+        <v>42</v>
+      </c>
+      <c r="M7">
+        <v>42</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>15</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L7">
-        <v>21</v>
-      </c>
-      <c r="M7">
-        <v>21</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -831,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -849,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.6666666666666666</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -873,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -881,13 +884,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.675</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -899,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -923,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -931,13 +934,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6086956521739131</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -949,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.5185185185185185</v>
+        <v>0.6</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -973,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -981,13 +984,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -999,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.3636363636363636</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1023,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1031,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5531914893617021</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1049,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.3333333333333333</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L12">
         <v>12</v>
@@ -1073,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1081,13 +1084,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5428571428571428</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1099,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.3333333333333333</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1123,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1131,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1152,10 +1155,10 @@
         <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.2711864406779661</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L14">
         <v>16</v>
@@ -1173,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1181,13 +1184,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5217391304347826</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1199,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.2522768670309654</v>
+        <v>0.2704918032786885</v>
       </c>
       <c r="L15">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="M15">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1223,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>821</v>
+        <v>801</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1231,13 +1234,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.358974358974359</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1249,19 +1252,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.2</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1273,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1281,38 +1284,38 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1538461538461539</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17">
+        <v>0.1411764705882353</v>
+      </c>
+      <c r="L17">
         <v>12</v>
       </c>
-      <c r="D17">
+      <c r="M17">
         <v>12</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>66</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17">
-        <v>0.1473684210526316</v>
-      </c>
-      <c r="L17">
-        <v>14</v>
-      </c>
-      <c r="M17">
-        <v>14</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1331,63 +1334,87 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.04040404040404041</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>65</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
+        <v>0.06325301204819277</v>
+      </c>
+      <c r="L18">
+        <v>42</v>
+      </c>
+      <c r="M18">
+        <v>42</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.04713804713804714</v>
+      </c>
+      <c r="C19">
         <v>14</v>
       </c>
-      <c r="E18">
-        <v>0.14</v>
-      </c>
-      <c r="F18">
-        <v>0.86</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>285</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
-        <v>0.06475903614457831</v>
-      </c>
-      <c r="L18">
-        <v>43</v>
-      </c>
-      <c r="M18">
-        <v>43</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>0.12</v>
+      </c>
+      <c r="F19">
+        <v>0.88</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>283</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>0.04074074074074074</v>
+        <v>0.05278592375366569</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M19">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1399,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>518</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.03519061583577713</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="L20">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1425,47 +1452,47 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>329</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.03461538461538462</v>
+        <v>0.04058441558441558</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N21">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>753</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.03409090909090909</v>
+        <v>0.03585147247119078</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1477,21 +1504,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>595</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.02246543778801843</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1503,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1697</v>
+        <v>1704</v>
       </c>
     </row>
   </sheetData>
